--- a/admin/public/sample_import.xlsx
+++ b/admin/public/sample_import.xlsx
@@ -1,46 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KLTN\websites\admin\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E2D6E-73B9-4210-8BA8-9F3BDBCDDDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Stimuli" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>stimulusId</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>choiceA</t>
+  </si>
+  <si>
+    <t>choiceB</t>
+  </si>
+  <si>
+    <t>choiceC</t>
+  </si>
+  <si>
+    <t>choiceD</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>part.1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>p1_007</t>
+  </si>
+  <si>
+    <t>p1_008</t>
+  </si>
+  <si>
+    <t>p1_009</t>
+  </si>
+  <si>
+    <t>p1_010</t>
+  </si>
+  <si>
+    <t>p1_011</t>
+  </si>
+  <si>
+    <t>p1_012</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set7</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set8</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set9</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set10</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set11</t>
+  </si>
+  <si>
+    <t>lv1_t3_p1_set12</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Anh ấy đang mang một số gói hàng.
+(B) Anh ấy đang đội một chiếc mũ.
+(C) Anh ấy đang đẩy một chiếc xe đẩy.
+(D) Anh ấy đang lau một số cửa sổ.</t>
+  </si>
+  <si>
+    <t>(A) He's carrying some packages.
+(B) He's putting on a hat.
+(C) He's pushing a cart.
+(D) He's washing some windows.</t>
+  </si>
+  <si>
+    <t>(A) She's hanging up a sign.
+(B) She's painting a wall.
+(C) She's using some office equipment.
+(D) She’s emptying a recycling bin.</t>
+  </si>
+  <si>
+    <t>(A) He's tying his shoe.
+(B) He's cutting the grass.
+(C) He's reading a magazine.
+(D) He's walking around a fountain.</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Anh ấy đang buộc dây giày.
+(B) Anh ấy đang cắt cỏ.
+(C) Anh ấy đang đọc tạp chí.
+(D) Anh ấy đang đi dạo quanh đài phun nước.</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Cô ấy đang treo một tấm biển.
+(B) Cô ấy đang sơn một bức tường.
+(C) Cô ấy đang sử dụng một số thiết bị văn phòng.
+(D) Cô ấy đang đổ thùng rác tái chế.</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Họ đang lắp đặt một lan can.
+(B) Họ đang quét các bậc thang.
+(C) Họ đang nhìn ra cửa sổ.
+(D) Họ đang đi xuống cầu thang.</t>
+  </si>
+  <si>
+    <t>(A) They're installing a railing.
+(B) They're sweeping the steps.
+(C) They're looking out a window.
+(D) They're going down some stairs.</t>
+  </si>
+  <si>
+    <t>(A) She's closing a door.
+(B) She's washing some plates.
+(C) She's preparing some food.
+(D) She's sweeping a floor.</t>
+  </si>
+  <si>
+    <t>(A) They're taking off their jackets.
+(B) They're walking outside.
+(C) They're going into a building.
+(D) They're packing some luggage.</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Cô ấy đang đóng cửa.
+(B) Cô ấy đang rửa vài cái đĩa.
+(C) Cô ấy đang chuẩn bị một ít thức ăn.
+(D) Cô ấy đang quét sàn.</t>
+  </si>
+  <si>
+    <t>Dịch đáp án:
+(A) Họ đang cởi áo khoác.
+(B) Họ đang đi ra ngoài.
+(C) Họ đang đi vào một tòa nhà.
+(D) Họ đang đóng gói một số hành lý.</t>
+  </si>
+  <si>
+    <t>Tranh tả người</t>
+  </si>
+  <si>
+    <t>Tranh tả cả người và vật</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,14 +262,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,213 +610,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>part</v>
-      </c>
-      <c r="C1" t="str">
-        <v>level</v>
-      </c>
-      <c r="D1" t="str">
-        <v>test</v>
-      </c>
-      <c r="E1" t="str">
-        <v>stimulusId</v>
-      </c>
-      <c r="F1" t="str">
-        <v>stem</v>
-      </c>
-      <c r="G1" t="str">
-        <v>answer</v>
-      </c>
-      <c r="H1" t="str">
-        <v>explain</v>
-      </c>
-      <c r="I1" t="str">
-        <v>order</v>
-      </c>
-      <c r="J1" t="str">
-        <v>choiceA</v>
-      </c>
-      <c r="K1" t="str">
-        <v>choiceB</v>
-      </c>
-      <c r="L1" t="str">
-        <v>choiceC</v>
-      </c>
-      <c r="M1" t="str">
-        <v>choiceD</v>
-      </c>
-      <c r="N1" t="str">
-        <v>tags</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Q101</v>
-      </c>
-      <c r="B2" t="str">
-        <v>part.1</v>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>S101</v>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v>A</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Giải thích cho câu 101</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v>tag1, tag2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Q102</v>
-      </c>
-      <c r="B3" t="str">
-        <v>part.5</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v>Question stem for part 5...</v>
-      </c>
-      <c r="G3" t="str">
-        <v>B</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Giải thích cho câu 102</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Option A</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Option B</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Option C</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Option D</v>
-      </c>
-      <c r="N3" t="str">
-        <v>grammar</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
+    <ignoredError sqref="A1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>part</v>
-      </c>
-      <c r="C1" t="str">
-        <v>level</v>
-      </c>
-      <c r="D1" t="str">
-        <v>test</v>
-      </c>
-      <c r="E1" t="str">
-        <v>image</v>
-      </c>
-      <c r="F1" t="str">
-        <v>audio</v>
-      </c>
-      <c r="G1" t="str">
-        <v>script</v>
-      </c>
-      <c r="H1" t="str">
-        <v>explain</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>S101</v>
-      </c>
-      <c r="B2" t="str">
-        <v>part.1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>https://example.com/image.jpg</v>
-      </c>
-      <c r="F2" t="str">
-        <v>https://example.com/audio.mp3</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Script content here...</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Stimulus explanation</v>
-      </c>
-    </row>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError sqref="A1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>